--- a/chart samples.xlsx
+++ b/chart samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Desktop\project 1(again\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677E6D5-6724-4EA0-BCA4-6243B4DB841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DA93C-2DC0-4708-8A89-34B6F203ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
+    <workbookView xWindow="-25410" yWindow="930" windowWidth="21600" windowHeight="12240" activeTab="1" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-    <pivotCache cacheId="14" r:id="rId5"/>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Unemployment Rate in Florida</t>
-  </si>
-  <si>
-    <t>Private Housing Building Permits</t>
   </si>
   <si>
     <t>Mean House Income Growth</t>
@@ -119,6 +116,9 @@
   <si>
     <t>Sum of House Price CF</t>
   </si>
+  <si>
+    <t>Private Housing Building Permits for Florida</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +127,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -194,11 +194,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,7 +207,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -315,6 +316,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -371,6 +375,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -427,6 +434,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -483,6 +493,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4321,6 +4334,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9751,7 +9767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38793D0B-4466-4D10-94C9-1439FC97013A}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38793D0B-4466-4D10-94C9-1439FC97013A}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A164:C197" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -9920,7 +9936,7 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Mean Household Income" fld="1" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="Sum of Mean Household Income" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
     <dataField name="Sum of House Price CF" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
@@ -9961,7 +9977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C976DF63-BF42-490E-9993-88428582EE34}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C976DF63-BF42-490E-9993-88428582EE34}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A126:B159" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -10154,7 +10170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55F7D5EB-4503-4995-9060-94E8ECA0D43B}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55F7D5EB-4503-4995-9060-94E8ECA0D43B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A88:C121" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -10364,7 +10380,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7CE4305-AA6A-4329-998B-28C9967A0CA3}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7CE4305-AA6A-4329-998B-28C9967A0CA3}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A46:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -10592,7 +10608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8576E019-F3CD-4000-95D1-0686B35E7CEF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8576E019-F3CD-4000-95D1-0686B35E7CEF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -11124,37 +11140,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4BDC62-8EFF-4844-BF18-9FBC98BFBABB}">
   <dimension ref="A3:E197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1989</v>
       </c>
@@ -11171,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1990</v>
       </c>
@@ -11188,7 +11204,7 @@
         <v>-0.22172278642292001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1991</v>
       </c>
@@ -11205,7 +11221,7 @@
         <v>-0.12008729192042226</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1992</v>
       </c>
@@ -11222,7 +11238,7 @@
         <v>0.16488827878969664</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1993</v>
       </c>
@@ -11239,7 +11255,7 @@
         <v>0.14755383155014773</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1994</v>
       </c>
@@ -11256,7 +11272,7 @@
         <v>-1.2206848261306982E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1995</v>
       </c>
@@ -11273,7 +11289,7 @@
         <v>-0.11325475924830457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1996</v>
       </c>
@@ -11290,7 +11306,7 @@
         <v>5.8188711854340311E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1997</v>
       </c>
@@ -11307,7 +11323,7 @@
         <v>-2.8887665286122678E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1998</v>
       </c>
@@ -11324,7 +11340,7 @@
         <v>7.6952832176879885E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1999</v>
       </c>
@@ -11341,7 +11357,7 @@
         <v>7.2290245950572096E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2000</v>
       </c>
@@ -11358,7 +11374,7 @@
         <v>-8.962016251523236E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2001</v>
       </c>
@@ -11375,7 +11391,7 @@
         <v>0.12878115071456386</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2002</v>
       </c>
@@ -11392,7 +11408,7 @@
         <v>9.9395870525688629E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -11409,7 +11425,7 @@
         <v>0.18503783929990245</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2004</v>
       </c>
@@ -11426,7 +11442,7 @@
         <v>0.17346020092123249</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2005</v>
       </c>
@@ -11443,7 +11459,7 @@
         <v>0.1540234139146244</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2006</v>
       </c>
@@ -11460,7 +11476,7 @@
         <v>-0.27796869458551865</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2007</v>
       </c>
@@ -11477,7 +11493,7 @@
         <v>-0.5112644833413712</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2008</v>
       </c>
@@ -11494,7 +11510,7 @@
         <v>-0.45533396907002782</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2009</v>
       </c>
@@ -11511,7 +11527,7 @@
         <v>-0.29895256074538695</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2010</v>
       </c>
@@ -11528,7 +11544,7 @@
         <v>0.114681329754428</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2011</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>3.2761590074890282E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2012</v>
       </c>
@@ -11562,7 +11578,7 @@
         <v>0.33474438785134875</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2013</v>
       </c>
@@ -11579,7 +11595,7 @@
         <v>0.30924262382198819</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2014</v>
       </c>
@@ -11596,7 +11612,7 @@
         <v>1.3685942276801781E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2015</v>
       </c>
@@ -11613,7 +11629,7 @@
         <v>0.16639085013258373</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2016</v>
       </c>
@@ -11630,7 +11646,7 @@
         <v>0.12589155610092803</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2017</v>
       </c>
@@ -11647,7 +11663,7 @@
         <v>0.12458379353239879</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
@@ -11664,7 +11680,7 @@
         <v>0.1401678980439777</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2019</v>
       </c>
@@ -11681,7 +11697,7 @@
         <v>4.7016844403349911E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2020</v>
       </c>
@@ -11698,9 +11714,9 @@
         <v>0.1696614960858219</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="6">
         <v>1.0246726917803126</v>
@@ -11715,18 +11731,18 @@
         <v>0.81675851140077171</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1989</v>
       </c>
@@ -11737,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1990</v>
       </c>
@@ -11748,7 +11764,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1991</v>
       </c>
@@ -11759,7 +11775,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>1992</v>
       </c>
@@ -11770,7 +11786,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1993</v>
       </c>
@@ -11781,7 +11797,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1994</v>
       </c>
@@ -11792,7 +11808,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1995</v>
       </c>
@@ -11803,7 +11819,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>1996</v>
       </c>
@@ -11814,7 +11830,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1997</v>
       </c>
@@ -11825,7 +11841,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>1998</v>
       </c>
@@ -11836,7 +11852,7 @@
         <v>4.4499999999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>1999</v>
       </c>
@@ -11847,7 +11863,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2000</v>
       </c>
@@ -11858,7 +11874,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2001</v>
       </c>
@@ -11869,7 +11885,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2002</v>
       </c>
@@ -11880,7 +11896,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2003</v>
       </c>
@@ -11891,7 +11907,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2004</v>
       </c>
@@ -11902,7 +11918,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2005</v>
       </c>
@@ -11913,7 +11929,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2006</v>
       </c>
@@ -11924,7 +11940,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2007</v>
       </c>
@@ -11935,7 +11951,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2008</v>
       </c>
@@ -11946,7 +11962,7 @@
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2009</v>
       </c>
@@ -11957,7 +11973,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2010</v>
       </c>
@@ -11968,7 +11984,7 @@
         <v>0.1082</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2011</v>
       </c>
@@ -11979,7 +11995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2012</v>
       </c>
@@ -11990,7 +12006,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2013</v>
       </c>
@@ -12001,7 +12017,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2014</v>
       </c>
@@ -12012,7 +12028,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2015</v>
       </c>
@@ -12023,7 +12039,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2016</v>
       </c>
@@ -12034,7 +12050,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2017</v>
       </c>
@@ -12045,7 +12061,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -12056,7 +12072,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2019</v>
       </c>
@@ -12067,7 +12083,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2020</v>
       </c>
@@ -12078,9 +12094,9 @@
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="6">
         <v>1.0246726917803126</v>
@@ -12089,18 +12105,18 @@
         <v>1.7881999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="C88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1989</v>
       </c>
@@ -12111,7 +12127,7 @@
         <v>93.76</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>1990</v>
       </c>
@@ -12122,7 +12138,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>1991</v>
       </c>
@@ -12133,7 +12149,7 @@
         <v>97.77</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>1992</v>
       </c>
@@ -12144,7 +12160,7 @@
         <v>99.88</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1993</v>
       </c>
@@ -12155,7 +12171,7 @@
         <v>101.66</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1994</v>
       </c>
@@ -12166,7 +12182,7 @@
         <v>100.86</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>1995</v>
       </c>
@@ -12177,7 +12193,7 @@
         <v>101.79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>1996</v>
       </c>
@@ -12188,7 +12204,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>1997</v>
       </c>
@@ -12199,7 +12215,7 @@
         <v>107.05</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>1998</v>
       </c>
@@ -12210,7 +12226,7 @@
         <v>112.03</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>1999</v>
       </c>
@@ -12221,7 +12237,7 @@
         <v>116.94</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2000</v>
       </c>
@@ -12232,7 +12248,7 @@
         <v>124.64</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2001</v>
       </c>
@@ -12243,7 +12259,7 @@
         <v>135.26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2002</v>
       </c>
@@ -12254,7 +12270,7 @@
         <v>145.37</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2003</v>
       </c>
@@ -12265,7 +12281,7 @@
         <v>156.43</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2004</v>
       </c>
@@ -12276,7 +12292,7 @@
         <v>177.67</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2005</v>
       </c>
@@ -12287,7 +12303,7 @@
         <v>225.98</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2006</v>
       </c>
@@ -12298,7 +12314,7 @@
         <v>272.79000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2007</v>
       </c>
@@ -12309,7 +12325,7 @@
         <v>272.98</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2008</v>
       </c>
@@ -12320,7 +12336,7 @@
         <v>229.96</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2009</v>
       </c>
@@ -12331,7 +12347,7 @@
         <v>190.69</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2010</v>
       </c>
@@ -12342,7 +12358,7 @@
         <v>164.34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>2011</v>
       </c>
@@ -12353,7 +12369,7 @@
         <v>149.32</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>2012</v>
       </c>
@@ -12364,7 +12380,7 @@
         <v>146.56</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>2013</v>
       </c>
@@ -12375,7 +12391,7 @@
         <v>161.13</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>2014</v>
       </c>
@@ -12386,7 +12402,7 @@
         <v>178.24</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>2015</v>
       </c>
@@ -12397,7 +12413,7 @@
         <v>193.82</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>2016</v>
       </c>
@@ -12408,7 +12424,7 @@
         <v>210.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>2017</v>
       </c>
@@ -12419,7 +12435,7 @@
         <v>231.24</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>2018</v>
       </c>
@@ -12430,7 +12446,7 @@
         <v>251.02</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>2019</v>
       </c>
@@ -12441,7 +12457,7 @@
         <v>266.79000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>2020</v>
       </c>
@@ -12452,9 +12468,9 @@
         <v>282.08</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" s="7">
         <v>9179.6400000000012</v>
@@ -12463,15 +12479,15 @@
         <v>5299.27</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>1989</v>
       </c>
@@ -12479,7 +12495,7 @@
         <v>5.0269925896120444</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>1990</v>
       </c>
@@ -12487,7 +12503,7 @@
         <v>5.0642511757302779</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>1991</v>
       </c>
@@ -12495,7 +12511,7 @@
         <v>5.1775364732529479</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>1992</v>
       </c>
@@ -12503,7 +12519,7 @@
         <v>5.0644158151932475</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>1993</v>
       </c>
@@ -12511,7 +12527,7 @@
         <v>5.113415627545586</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>1994</v>
       </c>
@@ -12519,7 +12535,7 @@
         <v>5.0022797045502907</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>1995</v>
       </c>
@@ -12527,7 +12543,7 @@
         <v>4.8624091381100722</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>1996</v>
       </c>
@@ -12535,7 +12551,7 @@
         <v>4.6842389835090561</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>1997</v>
       </c>
@@ -12543,7 +12559,7 @@
         <v>4.5327793637846652</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>1998</v>
       </c>
@@ -12551,7 +12567,7 @@
         <v>4.393254192575843</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>1999</v>
       </c>
@@ -12559,7 +12575,7 @@
         <v>4.0744792762465813</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2000</v>
       </c>
@@ -12567,7 +12583,7 @@
         <v>4.0857622764548962</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2001</v>
       </c>
@@ -12575,7 +12591,7 @@
         <v>4.7173804780876498</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2002</v>
       </c>
@@ -12583,7 +12599,7 @@
         <v>5.2682926829268295</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>2003</v>
       </c>
@@ -12591,7 +12607,7 @@
         <v>5.7263314526629054</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2004</v>
       </c>
@@ -12599,7 +12615,7 @@
         <v>6.018305788186467</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2005</v>
       </c>
@@ -12607,7 +12623,7 @@
         <v>6.7534851416381407</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2006</v>
       </c>
@@ -12615,7 +12631,7 @@
         <v>7.5019424403393327</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2007</v>
       </c>
@@ -12623,7 +12639,7 @@
         <v>7.9431890652739714</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2008</v>
       </c>
@@ -12631,7 +12647,7 @@
         <v>6.8382984818103694</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2009</v>
       </c>
@@ -12639,7 +12655,7 @@
         <v>6.3695613880570727</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2010</v>
       </c>
@@ -12647,7 +12663,7 @@
         <v>5.7672830055352726</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2011</v>
       </c>
@@ -12655,7 +12671,7 @@
         <v>5.148250023712416</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2012</v>
       </c>
@@ -12663,7 +12679,7 @@
         <v>4.4604471195184869</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2013</v>
       </c>
@@ -12671,7 +12687,7 @@
         <v>4.9599373968664411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2014</v>
       </c>
@@ -12679,7 +12695,7 @@
         <v>4.9874015994491137</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2015</v>
       </c>
@@ -12687,7 +12703,7 @@
         <v>5.2291607204554671</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>2016</v>
       </c>
@@ -12695,7 +12711,7 @@
         <v>5.8586138858058945</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2017</v>
       </c>
@@ -12703,7 +12719,7 @@
         <v>5.8048176497073394</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>2018</v>
       </c>
@@ -12711,7 +12727,7 @@
         <v>5.7723957723957726</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2019</v>
       </c>
@@ -12719,7 +12735,7 @@
         <v>6.3540467711140298</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>2020</v>
       </c>
@@ -12727,26 +12743,26 @@
         <v>6.4195321652484001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" s="7">
         <v>174.98048764535687</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
         <v>23</v>
       </c>
-      <c r="C164" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>1989</v>
       </c>
@@ -12757,7 +12773,7 @@
         <v>93760</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>1990</v>
       </c>
@@ -12768,7 +12784,7 @@
         <v>96010</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1991</v>
       </c>
@@ -12779,7 +12795,7 @@
         <v>97770</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>1992</v>
       </c>
@@ -12790,7 +12806,7 @@
         <v>99880</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>1993</v>
       </c>
@@ -12801,7 +12817,7 @@
         <v>101660</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>1994</v>
       </c>
@@ -12812,7 +12828,7 @@
         <v>100860</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>1995</v>
       </c>
@@ -12823,7 +12839,7 @@
         <v>101790</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>1996</v>
       </c>
@@ -12834,7 +12850,7 @@
         <v>104400</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>1997</v>
       </c>
@@ -12845,7 +12861,7 @@
         <v>107050</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>1998</v>
       </c>
@@ -12856,7 +12872,7 @@
         <v>112030</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>1999</v>
       </c>
@@ -12867,7 +12883,7 @@
         <v>116940</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>2000</v>
       </c>
@@ -12878,7 +12894,7 @@
         <v>124640</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2001</v>
       </c>
@@ -12889,7 +12905,7 @@
         <v>135260</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2002</v>
       </c>
@@ -12900,7 +12916,7 @@
         <v>145370</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>2003</v>
       </c>
@@ -12911,7 +12927,7 @@
         <v>156430</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>2004</v>
       </c>
@@ -12922,7 +12938,7 @@
         <v>177670</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>2005</v>
       </c>
@@ -12933,7 +12949,7 @@
         <v>225980</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>2006</v>
       </c>
@@ -12944,7 +12960,7 @@
         <v>272790</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>2007</v>
       </c>
@@ -12955,7 +12971,7 @@
         <v>272980</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>2008</v>
       </c>
@@ -12966,7 +12982,7 @@
         <v>229960</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>2009</v>
       </c>
@@ -12977,7 +12993,7 @@
         <v>190690</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>2010</v>
       </c>
@@ -12988,7 +13004,7 @@
         <v>164340</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>2011</v>
       </c>
@@ -12999,7 +13015,7 @@
         <v>149320</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>2012</v>
       </c>
@@ -13010,7 +13026,7 @@
         <v>146560</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>2013</v>
       </c>
@@ -13021,7 +13037,7 @@
         <v>161130</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>2014</v>
       </c>
@@ -13032,7 +13048,7 @@
         <v>178240</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>2015</v>
       </c>
@@ -13043,7 +13059,7 @@
         <v>193820</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>2016</v>
       </c>
@@ -13054,7 +13070,7 @@
         <v>210810</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>2017</v>
       </c>
@@ -13065,7 +13081,7 @@
         <v>231240</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>2018</v>
       </c>
@@ -13076,7 +13092,7 @@
         <v>251020</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>2019</v>
       </c>
@@ -13087,7 +13103,7 @@
         <v>266790</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>2020</v>
       </c>
@@ -13098,9 +13114,9 @@
         <v>282080</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" s="11">
         <v>1642243</v>
@@ -13117,31 +13133,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AC9897-AF76-4A71-8BA3-6987AD675F07}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13161,31 +13178,31 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -13230,7 +13247,7 @@
         <v>5.0269925896120444</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -13280,7 +13297,7 @@
         <v>5.0642511757302779</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1991</v>
       </c>
@@ -13307,30 +13324,30 @@
         <v>-5.6964959925813073E-3</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I33" si="1">(C4-C3)/C3</f>
+        <f t="shared" ref="I4:I35" si="1">(C4-C3)/C3</f>
         <v>1.6545680465633386E-2</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J33" si="2">(D4-D3)/D3</f>
+        <f t="shared" ref="J4:J35" si="2">(D4-D3)/D3</f>
         <v>1.8331423810019693E-2</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K33" si="3">(G4-G3)/G3</f>
+        <f t="shared" ref="K4:K35" si="3">(G4-G3)/G3</f>
         <v>-0.12008729192042226</v>
       </c>
       <c r="L4" s="8">
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M33" si="4">(G4-G3)/G3</f>
+        <f t="shared" ref="M4:M35" si="4">(G4-G3)/G3</f>
         <v>-0.12008729192042226</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ref="N4:N33" si="5">(C4*1000)/B4</f>
+        <f t="shared" ref="N4:N35" si="5">(C4*1000)/B4</f>
         <v>5.1775364732529479</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -13380,7 +13397,7 @@
         <v>5.0644158151932475</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1993</v>
       </c>
@@ -13430,7 +13447,7 @@
         <v>5.113415627545586</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -13480,7 +13497,7 @@
         <v>5.0022797045502907</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1995</v>
       </c>
@@ -13530,7 +13547,7 @@
         <v>4.8624091381100722</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1996</v>
       </c>
@@ -13580,7 +13597,7 @@
         <v>4.6842389835090561</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1997</v>
       </c>
@@ -13630,7 +13647,7 @@
         <v>4.5327793637846652</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -13680,7 +13697,7 @@
         <v>4.393254192575843</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1999</v>
       </c>
@@ -13730,7 +13747,7 @@
         <v>4.0744792762465813</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -13780,7 +13797,7 @@
         <v>4.0857622764548962</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -13830,7 +13847,7 @@
         <v>4.7173804780876498</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -13880,7 +13897,7 @@
         <v>5.2682926829268295</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2003</v>
       </c>
@@ -13930,7 +13947,7 @@
         <v>5.7263314526629054</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -13980,7 +13997,7 @@
         <v>6.018305788186467</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -14030,7 +14047,7 @@
         <v>6.7534851416381407</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -14080,7 +14097,7 @@
         <v>7.5019424403393327</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -14130,7 +14147,7 @@
         <v>7.9431890652739714</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -14180,7 +14197,7 @@
         <v>6.8382984818103694</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -14230,7 +14247,7 @@
         <v>6.3695613880570727</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -14280,7 +14297,7 @@
         <v>5.7672830055352726</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -14330,7 +14347,7 @@
         <v>5.148250023712416</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -14380,7 +14397,7 @@
         <v>4.4604471195184869</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -14430,7 +14447,7 @@
         <v>4.9599373968664411</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -14480,7 +14497,7 @@
         <v>4.9874015994491137</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -14530,7 +14547,7 @@
         <v>5.2291607204554671</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -14580,7 +14597,7 @@
         <v>5.8586138858058945</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -14630,7 +14647,7 @@
         <v>5.8048176497073394</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -14653,7 +14670,7 @@
         <v>7905.89</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="0"/>
+        <f>(B31-B30)/B30</f>
         <v>8.232496623142728E-2</v>
       </c>
       <c r="I31" s="2">
@@ -14680,7 +14697,7 @@
         <v>5.7723957723957726</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -14730,7 +14747,7 @@
         <v>6.3540467711140298</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -14753,7 +14770,7 @@
         <v>9681.99</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="0"/>
+        <f>(B33-B32)/B32</f>
         <v>5.1835502173353733E-2</v>
       </c>
       <c r="I33" s="2">
@@ -14780,18 +14797,111 @@
         <v>6.4195321652484001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>61777</v>
+      </c>
+      <c r="C34">
+        <v>586.78</v>
+      </c>
+      <c r="D34">
+        <v>323.86</v>
+      </c>
+      <c r="E34">
+        <v>2.96</v>
+      </c>
+      <c r="F34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12050.67</v>
+      </c>
+      <c r="H34" s="2">
+        <f>(B34-B33)/B33</f>
+        <v>-0.20469379610438096</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17673719041411812</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14811401020986964</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24464805272469817</v>
+      </c>
+      <c r="L34" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24464805272469817</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="5"/>
+        <v>9.4983569937031582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
+      <c r="B35">
+        <v>69884</v>
+      </c>
+      <c r="C35">
+        <v>737.44</v>
+      </c>
+      <c r="D35">
+        <v>400.26</v>
+      </c>
+      <c r="E35">
+        <v>5.34</v>
+      </c>
+      <c r="F35">
+        <v>2.9</v>
+      </c>
+      <c r="G35">
+        <v>10748.45</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ref="H34:H35" si="6">(B35-B34)/B34</f>
+        <v>0.13123006944332033</v>
+      </c>
+      <c r="I35" s="2">
+        <f>(C35-C34)/C34</f>
+        <v>0.25675721735573825</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23590440313715796</v>
+      </c>
+      <c r="K35" s="2">
+        <f>(G35-G34)/G34</f>
+        <v>-0.10806204136367516</v>
+      </c>
+      <c r="L35" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.10806204136367516</v>
+      </c>
+      <c r="N35" s="10">
+        <f>(C35*1000)/B35</f>
+        <v>10.552343884150879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L36" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M3:M33">
+  <conditionalFormatting sqref="M3:M35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -14821,7 +14931,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M33</xm:sqref>
+          <xm:sqref>M3:M35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14837,7 +14947,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chart samples.xlsx
+++ b/chart samples.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Desktop\project 1(again\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f13750c0123d7baf/Desktop/Data Bootcamp Class Folder/Group Project 1/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DA93C-2DC0-4708-8A89-34B6F203ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1E8DA93C-2DC0-4708-8A89-34B6F203ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45C7B38-05D7-4E43-888E-25FE05FF5651}"/>
   <bookViews>
-    <workbookView xWindow="-25410" yWindow="930" windowWidth="21600" windowHeight="12240" activeTab="1" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -8082,16 +8082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>186764</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>141939</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171823</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>388469</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>336175</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11140,20 +11140,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4BDC62-8EFF-4844-BF18-9FBC98BFBABB}">
   <dimension ref="A3:E197"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1989</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1990</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>-0.22172278642292001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1991</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>-0.12008729192042226</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1992</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0.16488827878969664</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1993</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0.14755383155014773</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1994</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>-1.2206848261306982E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1995</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>-0.11325475924830457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1996</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>5.8188711854340311E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1997</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>-2.8887665286122678E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1998</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>7.6952832176879885E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1999</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>7.2290245950572096E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2000</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>-8.962016251523236E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2001</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0.12878115071456386</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2002</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>9.9395870525688629E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>0.18503783929990245</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2004</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>0.17346020092123249</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2005</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>0.1540234139146244</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2006</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>-0.27796869458551865</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2007</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>-0.5112644833413712</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2008</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>-0.45533396907002782</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2009</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>-0.29895256074538695</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2010</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>0.114681329754428</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2011</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>3.2761590074890282E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2012</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>0.33474438785134875</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2013</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0.30924262382198819</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2014</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1.3685942276801781E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2015</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>0.16639085013258373</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2016</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>0.12589155610092803</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2017</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>0.12458379353239879</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>0.1401678980439777</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2019</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>4.7016844403349911E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2020</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>0.1696614960858219</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0.81675851140077171</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>1989</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>1990</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>1991</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>1992</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>1993</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>1994</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>1995</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>1996</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>1997</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>1998</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>4.4499999999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>1999</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2000</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>2001</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>2002</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>2003</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>2004</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>2005</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2006</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2007</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2008</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2009</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>2010</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>0.1082</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>2011</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>2012</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>2013</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>2014</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>2015</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>2016</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>2017</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>2019</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>2020</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1.7881999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>1989</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>93.76</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>1990</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>1991</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>97.77</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>1992</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>99.88</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>1993</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>101.66</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>1994</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>100.86</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>1995</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>101.79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>1996</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>1997</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>107.05</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>1998</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>112.03</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>1999</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>116.94</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>2000</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>124.64</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>2001</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>135.26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>2002</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>145.37</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>2003</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>156.43</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>2004</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>177.67</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2005</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>225.98</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2006</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>272.79000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2007</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>272.98</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2008</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>229.96</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2009</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>190.69</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>2010</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>164.34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2011</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>149.32</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2012</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>146.56</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>2013</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>161.13</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>2014</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>178.24</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>2015</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>193.82</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>2016</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>210.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>2017</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>231.24</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>2018</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>251.02</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>2019</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>266.79000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>2020</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>282.08</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>10</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>5299.27</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>9</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>1989</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>5.0269925896120444</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>1990</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>5.0642511757302779</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>1991</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>5.1775364732529479</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>1992</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>5.0644158151932475</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>1993</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>5.113415627545586</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>1994</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>5.0022797045502907</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>1995</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>4.8624091381100722</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>1996</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>4.6842389835090561</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>1997</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>4.5327793637846652</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>1998</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>4.393254192575843</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>1999</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>4.0744792762465813</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>2000</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>4.0857622764548962</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>2001</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>4.7173804780876498</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>2002</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>5.2682926829268295</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>2003</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>5.7263314526629054</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>2004</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>6.018305788186467</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>2005</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>6.7534851416381407</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>2006</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>7.5019424403393327</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>2007</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>7.9431890652739714</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>2008</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>6.8382984818103694</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>2009</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>6.3695613880570727</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>2010</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>5.7672830055352726</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>2011</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>5.148250023712416</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>2012</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>4.4604471195184869</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>2013</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>4.9599373968664411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>2014</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>4.9874015994491137</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>2015</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>5.2291607204554671</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>2016</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>5.8586138858058945</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>2017</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>5.8048176497073394</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>2018</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>5.7723957723957726</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>2019</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>6.3540467711140298</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>2020</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>6.4195321652484001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>10</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>174.98048764535687</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>9</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>1989</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>93760</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>1990</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>96010</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>1991</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>97770</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>1992</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>99880</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>1993</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>101660</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>1994</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>100860</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>1995</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>101790</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>1996</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>104400</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>1997</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>107050</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>1998</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>112030</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>1999</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>116940</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>2000</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>124640</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>2001</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>135260</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>2002</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>145370</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>2003</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>156430</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>2004</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>177670</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>2005</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>225980</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>2006</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>272790</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>2007</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>272980</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>2008</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>229960</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>2009</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>190690</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>2010</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>164340</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>2011</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>149320</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>2012</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>146560</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>2013</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>161130</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>2014</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>178240</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>2015</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>193820</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>2016</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>210810</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>2017</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>231240</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>2018</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>251020</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>2019</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>266790</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>2020</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>282080</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>10</v>
       </c>
@@ -13135,30 +13135,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AC9897-AF76-4A71-8BA3-6987AD675F07}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>5.0269925896120444</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>5.0642511757302779</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1991</v>
       </c>
@@ -13320,11 +13320,11 @@
         <v>6068.23</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H33" si="0">(B4-B3)/B3</f>
+        <f t="shared" ref="H4:H32" si="0">(B4-B3)/B3</f>
         <v>-5.6964959925813073E-3</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I35" si="1">(C4-C3)/C3</f>
+        <f t="shared" ref="I4:I34" si="1">(C4-C3)/C3</f>
         <v>1.6545680465633386E-2</v>
       </c>
       <c r="J4" s="2">
@@ -13332,7 +13332,7 @@
         <v>1.8331423810019693E-2</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K35" si="3">(G4-G3)/G3</f>
+        <f t="shared" ref="K4:K34" si="3">(G4-G3)/G3</f>
         <v>-0.12008729192042226</v>
       </c>
       <c r="L4" s="8">
@@ -13343,11 +13343,11 @@
         <v>-0.12008729192042226</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ref="N4:N35" si="5">(C4*1000)/B4</f>
+        <f t="shared" ref="N4:N34" si="5">(C4*1000)/B4</f>
         <v>5.1775364732529479</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>5.0644158151932475</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1993</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>5.113415627545586</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>5.0022797045502907</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1995</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>4.8624091381100722</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1996</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>4.6842389835090561</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1997</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>4.5327793637846652</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>4.393254192575843</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1999</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>4.0744792762465813</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>4.0857622764548962</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>4.7173804780876498</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>5.2682926829268295</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2003</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>5.7263314526629054</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>6.018305788186467</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>6.7534851416381407</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>7.5019424403393327</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>7.9431890652739714</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>6.8382984818103694</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>6.3695613880570727</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>5.7672830055352726</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>5.148250023712416</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>4.4604471195184869</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>4.9599373968664411</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>4.9874015994491137</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>5.2291607204554671</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>5.8586138858058945</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>5.8048176497073394</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>5.7723957723957726</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>6.3540467711140298</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>6.4195321652484001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>9.4983569937031582</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>10748.45</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" ref="H34:H35" si="6">(B35-B34)/B34</f>
+        <f t="shared" ref="H35" si="6">(B35-B34)/B34</f>
         <v>0.13123006944332033</v>
       </c>
       <c r="I35" s="2">
@@ -14897,7 +14897,7 @@
         <v>10.552343884150879</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L36" s="8"/>
     </row>
   </sheetData>
@@ -14947,7 +14947,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chart samples.xlsx
+++ b/chart samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f13750c0123d7baf/Desktop/Data Bootcamp Class Folder/Group Project 1/Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\UCF_Project\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1E8DA93C-2DC0-4708-8A89-34B6F203ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45C7B38-05D7-4E43-888E-25FE05FF5651}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8BC07C-5209-4A61-A624-441F32C1323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FD8502AA-DD07-4DDE-B28F-827F5A976675}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Sum of Mean Household Income</t>
-  </si>
-  <si>
-    <t>Sum of House Price CF</t>
   </si>
   <si>
     <t>Private Housing Building Permits for Florida</t>
@@ -205,7 +202,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -761,9 +776,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$36</c:f>
+              <c:f>Sheet3!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -859,16 +874,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$36</c:f>
+              <c:f>Sheet3!$B$4:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -964,6 +985,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.1835502173353733E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.20469379610438096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13123006944332033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,9 +1030,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$36</c:f>
+              <c:f>Sheet3!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -1101,16 +1128,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$36</c:f>
+              <c:f>Sheet3!$C$4:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1206,6 +1239,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6.2675816213451474E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17673719041411812</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25675721735573825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,9 +1284,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$36</c:f>
+              <c:f>Sheet3!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -1343,16 +1382,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$4:$D$36</c:f>
+              <c:f>Sheet3!$D$4:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1448,6 +1493,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.7310993665429598E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14811401020986964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23590440313715796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,9 +1538,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$36</c:f>
+              <c:f>Sheet3!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -1585,16 +1636,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$4:$E$36</c:f>
+              <c:f>Sheet3!$E$4:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1690,6 +1747,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.1696614960858219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24464805272469817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.10806204136367516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,9 +2148,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$47:$A$79</c:f>
+              <c:f>Sheet3!$A$47:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -2183,16 +2246,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$47:$B$79</c:f>
+              <c:f>Sheet3!$B$47:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2288,6 +2357,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.1835502173353733E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.20469379610438096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13123006944332033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,9 +2402,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$47:$A$79</c:f>
+              <c:f>Sheet3!$A$47:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -2425,16 +2500,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$47:$C$79</c:f>
+              <c:f>Sheet3!$C$47:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2530,6 +2611,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8.1699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,9 +3022,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$89:$A$121</c:f>
+              <c:f>Sheet3!$A$89:$A$123</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -3033,16 +3120,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$89:$B$121</c:f>
+              <c:f>Sheet3!$B$89:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>149.91999999999999</c:v>
                 </c:pt>
@@ -3138,6 +3231,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>498.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>586.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>737.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,9 +3276,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$89:$A$121</c:f>
+              <c:f>Sheet3!$A$89:$A$123</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -3275,16 +3374,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$89:$C$121</c:f>
+              <c:f>Sheet3!$C$89:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>93.76</c:v>
                 </c:pt>
@@ -3380,6 +3485,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>323.86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>400.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,9 +3933,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$127:$A$159</c:f>
+              <c:f>Sheet3!$A$127:$A$161</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -3920,16 +4031,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$127:$B$159</c:f>
+              <c:f>Sheet3!$B$127:$B$161</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5.0269925896120444</c:v>
                 </c:pt>
@@ -4025,6 +4142,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6.4195321652484001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4983569937031582</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.552343884150879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,6 +4396,36 @@
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -4461,7 +4614,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Mean Household Income</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4480,9 +4633,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$165:$A$197</c:f>
+              <c:f>Sheet3!$A$165:$A$199</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1989</c:v>
                 </c:pt>
@@ -4578,16 +4731,22 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$165:$B$197</c:f>
+              <c:f>Sheet3!$B$165:$B$199</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>29823</c:v>
                 </c:pt>
@@ -4683,6 +4842,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>77677</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4691,248 +4856,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D9EC-4220-8EE2-E024005442DF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$164</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of House Price CF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$165:$A$197</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$165:$C$197</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>93760</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96010</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>97770</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99880</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101660</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100860</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101790</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>107050</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>112030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116940</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>124640</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135260</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>145370</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156430</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>177670</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>225980</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272790</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>272980</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>229960</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>190690</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>164340</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>149320</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>146560</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>161130</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>178240</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>193820</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>210810</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>231240</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>251020</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>266790</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>282080</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D9EC-4220-8EE2-E024005442DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8120,13 +8043,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45044.801806365744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{EA5EAB7F-2493-4397-8B76-8CEC6E8AC1B8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45047.61501238426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{770516AA-C8AF-486A-AFC5-66350EC00407}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K33" sheet="Sheet1"/>
+    <worksheetSource ref="A1:K35" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2020" count="32">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2022" count="34">
         <n v="1989"/>
         <n v="1990"/>
         <n v="1991"/>
@@ -8159,28 +8082,30 @@
         <n v="2018"/>
         <n v="2019"/>
         <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Mean Household Income" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29823" maxValue="77677"/>
     </cacheField>
     <cacheField name="House Price Index for Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="498.65"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="737.44"/>
     </cacheField>
     <cacheField name="House Price Index Central Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="282.08"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="400.26"/>
     </cacheField>
     <cacheField name="30-Year Fixed Rate Mortgage Average" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.11" maxValue="10.32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.96" maxValue="10.32"/>
     </cacheField>
     <cacheField name="Unemployment Rate in Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="10.82"/>
     </cacheField>
-    <cacheField name="Private Housing Building Permits" numFmtId="0">
+    <cacheField name="Private Housing Building Permits for Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2302.38" maxValue="17087.14"/>
     </cacheField>
     <cacheField name="Mean House Income Growth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.5272844457175589E-2" maxValue="0.14722564734895191"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.20469379610438096" maxValue="0.14722564734895191"/>
     </cacheField>
     <cacheField name="House Price Index FL Growth" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.17116569742209878" maxValue="0.25728095560618186"/>
@@ -8201,13 +8126,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45044.805150462962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{4783F3DC-CB93-4A7A-987F-B86E7D6D3BF1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45047.615437731482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{DE84F1FA-8CB5-47D6-99EA-4538EA3D2A5A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L33" sheet="Sheet1"/>
+    <worksheetSource ref="A1:L35" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2020" count="32">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2022" count="34">
         <n v="1989"/>
         <n v="1990"/>
         <n v="1991"/>
@@ -8240,28 +8165,30 @@
         <n v="2018"/>
         <n v="2019"/>
         <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Mean Household Income" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29823" maxValue="77677"/>
     </cacheField>
     <cacheField name="House Price Index for Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="498.65"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="737.44"/>
     </cacheField>
     <cacheField name="House Price Index Central Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="282.08"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="400.26"/>
     </cacheField>
     <cacheField name="30-Year Fixed Rate Mortgage Average" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.11" maxValue="10.32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.96" maxValue="10.32"/>
     </cacheField>
     <cacheField name="Unemployment Rate in Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="10.82"/>
     </cacheField>
-    <cacheField name="Private Housing Building Permits" numFmtId="0">
+    <cacheField name="Private Housing Building Permits for Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2302.38" maxValue="17087.14"/>
     </cacheField>
     <cacheField name="Mean House Income Growth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.5272844457175589E-2" maxValue="0.14722564734895191"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.20469379610438096" maxValue="0.14722564734895191"/>
     </cacheField>
     <cacheField name="House Price Index FL Growth" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.17116569742209878" maxValue="0.25728095560618186"/>
@@ -8286,13 +8213,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45044.81835833333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{D0BC125D-1511-4AE5-89B2-266E01F8CC0A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pablo" refreshedDate="45047.616077893515" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{C7866E39-B9CA-4BC5-813C-8A0CF6108DAA}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N33" sheet="Sheet1"/>
+    <worksheetSource ref="A1:N35" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2020" count="32">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1989" maxValue="2022" count="34">
         <n v="1989"/>
         <n v="1990"/>
         <n v="1991"/>
@@ -8325,28 +8252,30 @@
         <n v="2018"/>
         <n v="2019"/>
         <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Mean Household Income" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29823" maxValue="77677"/>
     </cacheField>
     <cacheField name="House Price Index for Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="498.65"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149.91999999999999" maxValue="737.44"/>
     </cacheField>
     <cacheField name="House Price Index Central Florida" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="282.08"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="93.76" maxValue="400.26"/>
     </cacheField>
     <cacheField name="30-Year Fixed Rate Mortgage Average" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.11" maxValue="10.32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.96" maxValue="10.32"/>
     </cacheField>
     <cacheField name="Unemployment Rate in Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4700000000000002" maxValue="10.82"/>
     </cacheField>
-    <cacheField name="Private Housing Building Permits" numFmtId="0">
+    <cacheField name="Private Housing Building Permits for Florida" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2302.38" maxValue="17087.14"/>
     </cacheField>
     <cacheField name="Mean House Income Growth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.5272844457175589E-2" maxValue="0.14722564734895191"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.20469379610438096" maxValue="0.14722564734895191"/>
     </cacheField>
     <cacheField name="House Price Index FL Growth" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.17116569742209878" maxValue="0.25728095560618186"/>
@@ -8364,7 +8293,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.5112644833413712" maxValue="0.33474438785134875"/>
     </cacheField>
     <cacheField name="Price Income Ratio" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.0744792762465813" maxValue="7.9431890652739714"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.0744792762465813" maxValue="10.552343884150879"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -8376,7 +8305,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <x v="0"/>
     <n v="29823"/>
@@ -8793,11 +8722,37 @@
     <n v="5.7310993665429598E-2"/>
     <n v="0.1696614960858219"/>
   </r>
+  <r>
+    <x v="32"/>
+    <n v="61777"/>
+    <n v="586.78"/>
+    <n v="323.86"/>
+    <n v="2.96"/>
+    <n v="4.5999999999999996"/>
+    <n v="12050.67"/>
+    <n v="-0.20469379610438096"/>
+    <n v="0.17673719041411812"/>
+    <n v="0.14811401020986964"/>
+    <n v="0.24464805272469817"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="69884"/>
+    <n v="737.44"/>
+    <n v="400.26"/>
+    <n v="5.34"/>
+    <n v="2.9"/>
+    <n v="10748.45"/>
+    <n v="0.13123006944332033"/>
+    <n v="0.25675721735573825"/>
+    <n v="0.23590440313715796"/>
+    <n v="-0.10806204136367516"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <x v="0"/>
     <n v="29823"/>
@@ -9246,11 +9201,39 @@
     <n v="0.1696614960858219"/>
     <n v="8.1699999999999995E-2"/>
   </r>
+  <r>
+    <x v="32"/>
+    <n v="61777"/>
+    <n v="586.78"/>
+    <n v="323.86"/>
+    <n v="2.96"/>
+    <n v="4.5999999999999996"/>
+    <n v="12050.67"/>
+    <n v="-0.20469379610438096"/>
+    <n v="0.17673719041411812"/>
+    <n v="0.14811401020986964"/>
+    <n v="0.24464805272469817"/>
+    <n v="4.5999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="69884"/>
+    <n v="737.44"/>
+    <n v="400.26"/>
+    <n v="5.34"/>
+    <n v="2.9"/>
+    <n v="10748.45"/>
+    <n v="0.13123006944332033"/>
+    <n v="0.25675721735573825"/>
+    <n v="0.23590440313715796"/>
+    <n v="-0.10806204136367516"/>
+    <n v="2.7E-2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <x v="0"/>
     <n v="29823"/>
@@ -9763,15 +9746,47 @@
     <n v="0.1696614960858219"/>
     <n v="6.4195321652484001"/>
   </r>
+  <r>
+    <x v="32"/>
+    <n v="61777"/>
+    <n v="586.78"/>
+    <n v="323.86"/>
+    <n v="2.96"/>
+    <n v="4.5999999999999996"/>
+    <n v="12050.67"/>
+    <n v="-0.20469379610438096"/>
+    <n v="0.17673719041411812"/>
+    <n v="0.14811401020986964"/>
+    <n v="0.24464805272469817"/>
+    <n v="4.5999999999999999E-2"/>
+    <n v="0.24464805272469817"/>
+    <n v="9.4983569937031582"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="69884"/>
+    <n v="737.44"/>
+    <n v="400.26"/>
+    <n v="5.34"/>
+    <n v="2.9"/>
+    <n v="10748.45"/>
+    <n v="0.13123006944332033"/>
+    <n v="0.25675721735573825"/>
+    <n v="0.23590440313715796"/>
+    <n v="-0.10806204136367516"/>
+    <n v="2.7E-2"/>
+    <n v="-0.10806204136367516"/>
+    <n v="10.552343884150879"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38793D0B-4466-4D10-94C9-1439FC97013A}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A164:C197" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B279722-113F-4609-82FD-66A12F8D8E83}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A164:B199" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9804,6 +9819,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9818,12 +9835,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -9919,46 +9937,34 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Sum of Mean Household Income" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of House Price CF" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -9977,11 +9983,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C976DF63-BF42-490E-9993-88428582EE34}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A126:B159" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1062B3F5-6AC8-4C06-BB5A-5D4296F901C9}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A126:B161" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10014,6 +10020,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10034,7 +10042,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -10130,6 +10138,12 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -10142,7 +10156,7 @@
     <dataField name="Sum of Price Income Ratio" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10170,11 +10184,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55F7D5EB-4503-4995-9060-94E8ECA0D43B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A88:C121" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8779E2D4-0169-4BDF-960B-DB7DCD316690}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A88:C123" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10207,6 +10221,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10226,7 +10242,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -10322,6 +10338,12 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -10343,7 +10365,7 @@
     <dataField name="Sum of House Price Index Central Florida" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10380,11 +10402,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7CE4305-AA6A-4329-998B-28C9967A0CA3}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A46:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11EE90DD-0248-43A3-BC96-E12369A8BEE6}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A46:C81" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10417,6 +10439,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10436,7 +10460,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -10532,6 +10556,12 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -10553,10 +10583,10 @@
     <dataField name="Sum of Unemployment Rate in Florida2" fld="11" baseField="0" baseItem="3" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10608,11 +10638,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8576E019-F3CD-4000-95D1-0686B35E7CEF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79B84800-B04E-4881-94B7-42C3A9152D8C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10645,6 +10675,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10662,7 +10694,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -10758,6 +10790,12 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -10787,7 +10825,7 @@
     <dataField name="Sum of Private Housing Permits Growth" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11138,17 +11176,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4BDC62-8EFF-4844-BF18-9FBC98BFBABB}">
-  <dimension ref="A3:E197"/>
+  <dimension ref="A3:E199"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
@@ -11715,20 +11753,54 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="6">
+        <v>-0.20469379610438096</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.17673719041411812</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.14811401020986964</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.24464805272469817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.13123006944332033</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.25675721735573825</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.23590440313715796</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-0.10806204136367516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="6">
-        <v>1.0246726917803126</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1.3376976760866173</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1.2486897689117276</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.81675851140077171</v>
+      <c r="B38" s="6">
+        <v>0.9512089651192519</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.7711920838564736</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1.6327081822587552</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.95334452276179482</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -12095,14 +12167,36 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="6">
+        <v>-0.20469379610438096</v>
+      </c>
+      <c r="C79" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.13123006944332033</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="6">
-        <v>1.0246726917803126</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1.7881999999999998</v>
+      <c r="B81" s="6">
+        <v>0.9512089651192519</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1.8611999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -12469,14 +12563,36 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="7">
+        <v>586.78</v>
+      </c>
+      <c r="C121" s="7">
+        <v>323.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B122" s="7">
+        <v>737.44</v>
+      </c>
+      <c r="C122" s="7">
+        <v>400.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="7">
-        <v>9179.6400000000012</v>
-      </c>
-      <c r="C121" s="7">
-        <v>5299.27</v>
+      <c r="B123" s="7">
+        <v>10503.860000000002</v>
+      </c>
+      <c r="C123" s="7">
+        <v>6023.39</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -12744,385 +12860,315 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B159" s="7">
+        <v>9.4983569937031582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B160" s="7">
+        <v>10.552343884150879</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="7">
-        <v>174.98048764535687</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B161" s="7">
+        <v>195.03118852321091</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
       </c>
-      <c r="C164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>1989</v>
       </c>
       <c r="B165" s="11">
         <v>29823</v>
       </c>
-      <c r="C165" s="11">
-        <v>93760</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>1990</v>
       </c>
       <c r="B166" s="11">
         <v>30194</v>
       </c>
-      <c r="C166" s="11">
-        <v>96010</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>1991</v>
       </c>
       <c r="B167" s="11">
         <v>30022</v>
       </c>
-      <c r="C167" s="11">
-        <v>97770</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>1992</v>
       </c>
       <c r="B168" s="11">
         <v>31514</v>
       </c>
-      <c r="C168" s="11">
-        <v>99880</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>1993</v>
       </c>
       <c r="B169" s="11">
         <v>31918</v>
       </c>
-      <c r="C169" s="11">
-        <v>101660</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>1994</v>
       </c>
       <c r="B170" s="11">
         <v>32899</v>
       </c>
-      <c r="C170" s="11">
-        <v>100860</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>1995</v>
       </c>
       <c r="B171" s="11">
         <v>34668</v>
       </c>
-      <c r="C171" s="11">
-        <v>101790</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>1996</v>
       </c>
       <c r="B172" s="11">
         <v>36990</v>
       </c>
-      <c r="C172" s="11">
-        <v>104400</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>1997</v>
       </c>
       <c r="B173" s="11">
         <v>39232</v>
       </c>
-      <c r="C173" s="11">
-        <v>107050</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>1998</v>
       </c>
       <c r="B174" s="11">
         <v>42456</v>
       </c>
-      <c r="C174" s="11">
-        <v>112030</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>1999</v>
       </c>
       <c r="B175" s="11">
         <v>47530</v>
       </c>
-      <c r="C175" s="11">
-        <v>116940</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>2000</v>
       </c>
       <c r="B176" s="11">
         <v>50605</v>
       </c>
-      <c r="C176" s="11">
-        <v>124640</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>2001</v>
       </c>
       <c r="B177" s="11">
         <v>48192</v>
       </c>
-      <c r="C177" s="11">
-        <v>135260</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>2002</v>
       </c>
       <c r="B178" s="11">
         <v>47560</v>
       </c>
-      <c r="C178" s="11">
-        <v>145370</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>2003</v>
       </c>
       <c r="B179" s="11">
         <v>48387</v>
       </c>
-      <c r="C179" s="11">
-        <v>156430</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>2004</v>
       </c>
       <c r="B180" s="11">
         <v>53972</v>
       </c>
-      <c r="C180" s="11">
-        <v>177670</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>2005</v>
       </c>
       <c r="B181" s="11">
         <v>60471</v>
       </c>
-      <c r="C181" s="11">
-        <v>225980</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>2006</v>
       </c>
       <c r="B182" s="11">
         <v>63065</v>
       </c>
-      <c r="C182" s="11">
-        <v>272790</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>2007</v>
       </c>
       <c r="B183" s="11">
         <v>58017</v>
       </c>
-      <c r="C183" s="11">
-        <v>272980</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>2008</v>
       </c>
       <c r="B184" s="11">
         <v>55856</v>
       </c>
-      <c r="C184" s="11">
-        <v>229960</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>2009</v>
       </c>
       <c r="B185" s="11">
         <v>51093</v>
       </c>
-      <c r="C185" s="11">
-        <v>190690</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>2010</v>
       </c>
       <c r="B186" s="11">
         <v>50946</v>
       </c>
-      <c r="C186" s="11">
-        <v>164340</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>2011</v>
       </c>
       <c r="B187" s="11">
         <v>52715</v>
       </c>
-      <c r="C187" s="11">
-        <v>149320</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>2012</v>
       </c>
       <c r="B188" s="11">
         <v>60476</v>
       </c>
-      <c r="C188" s="11">
-        <v>146560</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>2013</v>
       </c>
       <c r="B189" s="11">
         <v>58783</v>
       </c>
-      <c r="C189" s="11">
-        <v>161130</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>2014</v>
       </c>
       <c r="B190" s="11">
         <v>63897</v>
       </c>
-      <c r="C190" s="11">
-        <v>178240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>2015</v>
       </c>
       <c r="B191" s="11">
         <v>66569</v>
       </c>
-      <c r="C191" s="11">
-        <v>193820</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>2016</v>
       </c>
       <c r="B192" s="11">
         <v>64872</v>
       </c>
-      <c r="C192" s="11">
-        <v>210810</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>2017</v>
       </c>
       <c r="B193" s="11">
         <v>71072</v>
       </c>
-      <c r="C193" s="11">
-        <v>231240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>2018</v>
       </c>
       <c r="B194" s="11">
         <v>76923</v>
       </c>
-      <c r="C194" s="11">
-        <v>251020</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>2019</v>
       </c>
       <c r="B195" s="11">
         <v>73849</v>
       </c>
-      <c r="C195" s="11">
-        <v>266790</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>2020</v>
       </c>
       <c r="B196" s="11">
         <v>77677</v>
       </c>
-      <c r="C196" s="11">
-        <v>282080</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="5" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B197" s="11">
+        <v>61777</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B198" s="11">
+        <v>69884</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B197" s="11">
-        <v>1642243</v>
-      </c>
-      <c r="C197" s="11">
-        <v>5299270</v>
+      <c r="B199" s="11">
+        <v>1773904</v>
       </c>
     </row>
   </sheetData>
@@ -13135,7 +13181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AC9897-AF76-4A71-8BA3-6987AD675F07}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
@@ -13178,7 +13224,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
